--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppa-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppa-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Nppa</t>
+  </si>
+  <si>
+    <t>Npr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Nppa</t>
-  </si>
-  <si>
-    <t>Npr2</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2011846666666667</v>
+        <v>0.2077686666666667</v>
       </c>
       <c r="H2">
-        <v>0.603554</v>
+        <v>0.623306</v>
       </c>
       <c r="I2">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J2">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.79139566666667</v>
+        <v>17.160689</v>
       </c>
       <c r="N2">
-        <v>56.374187</v>
+        <v>51.482067</v>
       </c>
       <c r="O2">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="P2">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="Q2">
-        <v>3.780540673399778</v>
+        <v>3.565453472611334</v>
       </c>
       <c r="R2">
-        <v>34.024866060598</v>
+        <v>32.089081253502</v>
       </c>
       <c r="S2">
-        <v>0.2589237496911663</v>
+        <v>0.1944553127541819</v>
       </c>
       <c r="T2">
-        <v>0.2589237496911663</v>
+        <v>0.1944553127541819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2011846666666667</v>
+        <v>0.2077686666666667</v>
       </c>
       <c r="H3">
-        <v>0.603554</v>
+        <v>0.623306</v>
       </c>
       <c r="I3">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J3">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.307519</v>
       </c>
       <c r="O3">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="P3">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="Q3">
-        <v>1.697161591391778</v>
+        <v>1.752703159757111</v>
       </c>
       <c r="R3">
-        <v>15.274454322526</v>
+        <v>15.774328437814</v>
       </c>
       <c r="S3">
-        <v>0.1162361368485976</v>
+        <v>0.09559020857063492</v>
       </c>
       <c r="T3">
-        <v>0.1162361368485977</v>
+        <v>0.09559020857063492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2011846666666667</v>
+        <v>0.2077686666666667</v>
       </c>
       <c r="H4">
-        <v>0.603554</v>
+        <v>0.623306</v>
       </c>
       <c r="I4">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J4">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.388197</v>
+        <v>3.591739</v>
       </c>
       <c r="N4">
-        <v>7.164591</v>
+        <v>10.775217</v>
       </c>
       <c r="O4">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="P4">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="Q4">
-        <v>0.4804686173793333</v>
+        <v>0.7462508230446667</v>
       </c>
       <c r="R4">
-        <v>4.324217556414</v>
+        <v>6.716257407402</v>
       </c>
       <c r="S4">
-        <v>0.03290659902064011</v>
+        <v>0.04069957392598821</v>
       </c>
       <c r="T4">
-        <v>0.03290659902064012</v>
+        <v>0.04069957392598821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2077686666666667</v>
+        <v>0.420415</v>
       </c>
       <c r="H5">
-        <v>0.623306</v>
+        <v>1.261245</v>
       </c>
       <c r="I5">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="J5">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.79139566666667</v>
+        <v>17.160689</v>
       </c>
       <c r="N5">
-        <v>56.374187</v>
+        <v>51.482067</v>
       </c>
       <c r="O5">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="P5">
-        <v>0.6345136365109286</v>
+        <v>0.5879310549011342</v>
       </c>
       <c r="Q5">
-        <v>3.904263222469111</v>
+        <v>7.214611065935</v>
       </c>
       <c r="R5">
-        <v>35.138369002222</v>
+        <v>64.931499593415</v>
       </c>
       <c r="S5">
-        <v>0.267397327703904</v>
+        <v>0.3934757421469522</v>
       </c>
       <c r="T5">
-        <v>0.267397327703904</v>
+        <v>0.3934757421469522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2077686666666667</v>
+        <v>0.420415</v>
       </c>
       <c r="H6">
-        <v>0.623306</v>
+        <v>1.261245</v>
       </c>
       <c r="I6">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="J6">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>25.307519</v>
       </c>
       <c r="O6">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="P6">
-        <v>0.2848460752393541</v>
+        <v>0.289014742601545</v>
       </c>
       <c r="Q6">
-        <v>1.752703159757111</v>
+        <v>3.546553533461666</v>
       </c>
       <c r="R6">
-        <v>15.774328437814</v>
+        <v>31.918981801155</v>
       </c>
       <c r="S6">
-        <v>0.1200400983417424</v>
+        <v>0.1934245340309101</v>
       </c>
       <c r="T6">
-        <v>0.1200400983417424</v>
+        <v>0.1934245340309101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2077686666666667</v>
+        <v>0.420415</v>
       </c>
       <c r="H7">
-        <v>0.623306</v>
+        <v>1.261245</v>
       </c>
       <c r="I7">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="J7">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,214 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.388197</v>
+        <v>3.591739</v>
       </c>
       <c r="N7">
-        <v>7.164591</v>
+        <v>10.775217</v>
       </c>
       <c r="O7">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="P7">
-        <v>0.08064028824971738</v>
+        <v>0.1230542024973208</v>
       </c>
       <c r="Q7">
-        <v>0.4961925064273334</v>
+        <v>1.510020951685</v>
       </c>
       <c r="R7">
-        <v>4.465732557846</v>
+        <v>13.590188565165</v>
       </c>
       <c r="S7">
-        <v>0.03398350538503449</v>
+        <v>0.08235462857133254</v>
       </c>
       <c r="T7">
-        <v>0.03398350538503449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.08406599999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.252198</v>
-      </c>
-      <c r="I8">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="J8">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>18.79139566666667</v>
-      </c>
-      <c r="N8">
-        <v>56.374187</v>
-      </c>
-      <c r="O8">
-        <v>0.6345136365109286</v>
-      </c>
-      <c r="P8">
-        <v>0.6345136365109286</v>
-      </c>
-      <c r="Q8">
-        <v>1.579717468114</v>
-      </c>
-      <c r="R8">
-        <v>14.217457213026</v>
-      </c>
-      <c r="S8">
-        <v>0.1081925591158583</v>
-      </c>
-      <c r="T8">
-        <v>0.1081925591158583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.08406599999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.252198</v>
-      </c>
-      <c r="I9">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="J9">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.435839666666666</v>
-      </c>
-      <c r="N9">
-        <v>25.307519</v>
-      </c>
-      <c r="O9">
-        <v>0.2848460752393541</v>
-      </c>
-      <c r="P9">
-        <v>0.2848460752393541</v>
-      </c>
-      <c r="Q9">
-        <v>0.7091672974179999</v>
-      </c>
-      <c r="R9">
-        <v>6.382505676761999</v>
-      </c>
-      <c r="S9">
-        <v>0.04856984004901404</v>
-      </c>
-      <c r="T9">
-        <v>0.04856984004901405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.08406599999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.252198</v>
-      </c>
-      <c r="I10">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="J10">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.388197</v>
-      </c>
-      <c r="N10">
-        <v>7.164591</v>
-      </c>
-      <c r="O10">
-        <v>0.08064028824971738</v>
-      </c>
-      <c r="P10">
-        <v>0.08064028824971738</v>
-      </c>
-      <c r="Q10">
-        <v>0.200766169002</v>
-      </c>
-      <c r="R10">
-        <v>1.806895521018</v>
-      </c>
-      <c r="S10">
-        <v>0.01375018384404277</v>
-      </c>
-      <c r="T10">
-        <v>0.01375018384404278</v>
+        <v>0.08235462857133254</v>
       </c>
     </row>
   </sheetData>
